--- a/documentation/Data Scrape and Validation Project Plan.xlsx
+++ b/documentation/Data Scrape and Validation Project Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="13_ncr:1_{5FCF373E-65BB-48E6-BEB8-80267E1BFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA97A657-8302-46E3-95F8-318304DFE71A}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="13_ncr:1_{5FCF373E-65BB-48E6-BEB8-80267E1BFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E38649CF-1C33-44D4-A0C7-686FB498975A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60F2CF9D-D706-4743-AB56-524E50D7B93A}"/>
   </bookViews>
@@ -937,8 +937,8 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1175,47 +1175,67 @@
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13">
+        <v>45371</v>
+      </c>
       <c r="C23" s="14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13">
+        <v>45371</v>
+      </c>
       <c r="C24" s="14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
@@ -1301,8 +1321,12 @@
       <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1</v>
+      </c>
       <c r="D37" s="9" t="s">
         <v>48</v>
       </c>
@@ -1311,8 +1335,12 @@
       <c r="A38" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1</v>
+      </c>
       <c r="D38" s="9" t="s">
         <v>50</v>
       </c>
@@ -1321,8 +1349,12 @@
       <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
@@ -1348,43 +1380,67 @@
       <c r="A43" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C43" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C46" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C48" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
@@ -1397,57 +1453,89 @@
       <c r="A50" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
+      <c r="B50" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="13">
+        <v>45372</v>
+      </c>
+      <c r="C51" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="13">
+        <v>45373</v>
+      </c>
+      <c r="C52" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="13">
+        <v>45373</v>
+      </c>
+      <c r="C53" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
+      <c r="B54" s="13">
+        <v>45373</v>
+      </c>
+      <c r="C54" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
+      <c r="B55" s="13">
+        <v>45373</v>
+      </c>
+      <c r="C55" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="13">
+        <v>45373</v>
+      </c>
+      <c r="C56" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="13">
+        <v>45373</v>
+      </c>
+      <c r="C57" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
@@ -1473,22 +1561,32 @@
       <c r="A61" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="13">
+        <v>45373</v>
+      </c>
+      <c r="C61" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="B62" s="13">
+        <v>45374</v>
+      </c>
+      <c r="C62" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
+      <c r="C63" s="14">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">

--- a/documentation/Data Scrape and Validation Project Plan.xlsx
+++ b/documentation/Data Scrape and Validation Project Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="624" documentId="13_ncr:1_{5FCF373E-65BB-48E6-BEB8-80267E1BFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E38649CF-1C33-44D4-A0C7-686FB498975A}"/>
+  <xr:revisionPtr revIDLastSave="654" documentId="13_ncr:1_{5FCF373E-65BB-48E6-BEB8-80267E1BFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25ED8E32-56DA-4B16-8001-1E92D6EF3B2B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60F2CF9D-D706-4743-AB56-524E50D7B93A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60F2CF9D-D706-4743-AB56-524E50D7B93A}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>Date Completed</t>
   </si>
@@ -367,9 +367,6 @@
     <t>Verify totals match detail lines</t>
   </si>
   <si>
-    <t>Update data and export to Excel as final dataset</t>
-  </si>
-  <si>
     <t>Legislative Activity Data</t>
   </si>
   <si>
@@ -434,6 +431,12 @@
       </rPr>
       <t>: Document data issues and updates in final presentation</t>
     </r>
+  </si>
+  <si>
+    <t>Update dataset as needed</t>
+  </si>
+  <si>
+    <t>Available in GitHub</t>
   </si>
 </sst>
 </file>
@@ -937,8 +940,8 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1214,6 +1217,9 @@
       <c r="C26" s="14">
         <v>1</v>
       </c>
+      <c r="D26" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
@@ -1224,6 +1230,9 @@
       </c>
       <c r="C27" s="14">
         <v>1</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1552,7 +1561,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -1583,21 +1592,27 @@
       <c r="A63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="13"/>
+      <c r="B63" s="13">
+        <v>45376</v>
+      </c>
       <c r="C63" s="14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="13">
+        <v>45376</v>
+      </c>
+      <c r="C64" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -1606,50 +1621,87 @@
       <c r="A66" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="13">
+        <v>45376</v>
+      </c>
+      <c r="C66" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="B67" s="13">
+        <v>45376</v>
+      </c>
+      <c r="C67" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="B68" s="13">
+        <v>45378</v>
+      </c>
+      <c r="C68" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="B69" s="13">
+        <v>45378</v>
+      </c>
+      <c r="C69" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="B70" s="13">
+        <v>45378</v>
+      </c>
+      <c r="C70" s="14">
+        <v>1</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="B71" s="13">
+        <v>45378</v>
+      </c>
+      <c r="C71" s="14">
+        <v>1</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="B72" s="13">
+        <v>45378</v>
+      </c>
+      <c r="C72" s="14">
+        <v>1</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
@@ -1668,15 +1720,29 @@
       <c r="A75" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="17"/>
+      <c r="B75" s="13">
+        <v>45380</v>
+      </c>
+      <c r="C75" s="14">
+        <v>1</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="17"/>
+      <c r="B76" s="13">
+        <v>45380</v>
+      </c>
+      <c r="C76" s="14">
+        <v>1</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
